--- a/M2/Lab_3/data.xlsx
+++ b/M2/Lab_3/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex1\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex1\Projects\CyberPhysics\M2\Lab_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E216A74F-E23B-447D-B33D-1027FA797868}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD1C92F-F67A-4697-9A93-BC62BC0A26E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{01AA6D3B-3846-468B-812C-C3F50CF6D0F4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Uin</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>us</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>mkc</t>
+  </si>
+  <si>
+    <t>+100пФ</t>
   </si>
 </sst>
 </file>
@@ -112,9 +121,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,7 +442,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,6 +585,12 @@
       <c r="C11">
         <v>0.87</v>
       </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -590,7 +606,10 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -606,6 +625,12 @@
       <c r="E13" t="s">
         <v>8</v>
       </c>
+      <c r="F13">
+        <v>0.16</v>
+      </c>
+      <c r="G13">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -623,6 +648,9 @@
       <c r="F14">
         <v>0.14000000000000001</v>
       </c>
+      <c r="G14">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -637,6 +665,12 @@
       <c r="E15" t="s">
         <v>10</v>
       </c>
+      <c r="F15">
+        <v>0.2</v>
+      </c>
+      <c r="G15">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -650,6 +684,13 @@
       </c>
       <c r="E16" t="s">
         <v>11</v>
+      </c>
+      <c r="F16">
+        <f>8/5*0.2</f>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="G16">
+        <v>0.52</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
